--- a/biology/Mycologie/Suillus_bovinus/Suillus_bovinus.xlsx
+++ b/biology/Mycologie/Suillus_bovinus/Suillus_bovinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus bovinus
 Suillus bovinus, le Bolet des bouviers, autrefois Boletus bovinus, est un champignon basidiomycète du genre Suillus placé dans la famille des Suillaceae. Il est caractérisé par ses amples pores anguleux.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus bovinus (L.) Roussel[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus bovinus L.[1].
-Synonymes
-Suillus bovinus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus bovinus (L.) Roussel.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus bovinus L..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus bovinus a pour synonymes :
 Agaricus bovinus (L.) Lam.
 Boletus aestivus Schlotterb.
 Boletus bovinus Fr.
@@ -535,49 +584,156 @@
 Suillus bovinus (Fr.) O.Kunze
 Suillus bovinus (L.) Kuntze
 Viscipellis bovina (L.) Quél.
-Étymologie
-L’origine du nom du Bolet des bouviers puise dans l’histoire médiévale et reflète les connotations sociales de sa consommation. Sa réputation de champignon de qualité médiocre le réservait principalement à la classe des bouviers, c’est-à-dire les travailleurs agricoles ou la classe ouvrière, qui le consommaient faute de mieux[2].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet des bouviers[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’origine du nom du Bolet des bouviers puise dans l’histoire médiévale et reflète les connotations sociales de sa consommation. Sa réputation de champignon de qualité médiocre le réservait principalement à la classe des bouviers, c’est-à-dire les travailleurs agricoles ou la classe ouvrière, qui le consommaient faute de mieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet des bouviers,.
 Le Bolet des bouviers est parfois nommé à tort "Cèpe des pins", mais le Cèpe des pins est une tout autre espèce ; Boletus pinophilus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Suillus_bovinus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suillus_bovinus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus bovinus, le Bolet des bouviers, sont les suivantes :
-Son chapeau mesure 4 à 10 cm, il est visqueux, brun-jaune à beige parfois nuancé de rose[5], parfois avec une marge blanchâtre.
-L'hyménophore présente des tubes jaunes puis jaune olivacé à beige. Ses pores sont très amples, anguleux, composés, ayant tendance à s'aligner dans le sens radial chez les adultes, concolores aux tubes et plus sombres à la fin[5].
-Son stipe mesure 3 à 10 cm x 0,5 à 2 cm, il est lisse, beige, brun ocre clair[5].
-La chair est molle, crème, parfois jaunâtre à fauve dans le pied, élastique et bleuissant parfois un peu. Sa saveur est douce et son odeur est faible, parfois légère de scléroderme[5]. Elle rosit à la cuisson.
-Son mycélium est parfois rose[5]. Sa sporée est brun olive[6]. Il pousse souvent en touffes ou en troupes.
-Caractéristiques microscopiques
-Ses spores sont elliptiques, lisses, jaunâtres à paroi épaisse, mesurant 7,5 à 9,5 µm x 2,5-4 µm. Les basides sont clavées, tétrasporiques, non bouclées. Cheilo et pleurocystides peu fréquentes, cylindriques clavées, hyalines, ornées de cristaux brunâtres épars. La cuticule est faite d'hyphes plus ou moins parallèles enchevêtrées, gélifiées aux cloisons rares non bouclées[6].
+Son chapeau mesure 4 à 10 cm, il est visqueux, brun-jaune à beige parfois nuancé de rose, parfois avec une marge blanchâtre.
+L'hyménophore présente des tubes jaunes puis jaune olivacé à beige. Ses pores sont très amples, anguleux, composés, ayant tendance à s'aligner dans le sens radial chez les adultes, concolores aux tubes et plus sombres à la fin.
+Son stipe mesure 3 à 10 cm x 0,5 à 2 cm, il est lisse, beige, brun ocre clair.
+La chair est molle, crème, parfois jaunâtre à fauve dans le pied, élastique et bleuissant parfois un peu. Sa saveur est douce et son odeur est faible, parfois légère de scléroderme. Elle rosit à la cuisson.
+Son mycélium est parfois rose. Sa sporée est brun olive. Il pousse souvent en touffes ou en troupes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_bovinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques, lisses, jaunâtres à paroi épaisse, mesurant 7,5 à 9,5 µm x 2,5-4 µm. Les basides sont clavées, tétrasporiques, non bouclées. Cheilo et pleurocystides peu fréquentes, cylindriques clavées, hyalines, ornées de cristaux brunâtres épars. La cuticule est faite d'hyphes plus ou moins parallèles enchevêtrées, gélifiées aux cloisons rares non bouclées.
 </t>
         </is>
       </c>
